--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ACD/20/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ACD/20/seed2/result_data_RandomForest.xlsx
@@ -471,7 +471,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-22.1162</v>
+        <v>-22.09190000000001</v>
       </c>
       <c r="B3" t="n">
         <v>4.03</v>
@@ -522,7 +522,7 @@
         <v>-15.25</v>
       </c>
       <c r="D6" t="n">
-        <v>-7.9725</v>
+        <v>-7.8976</v>
       </c>
     </row>
     <row r="7">
@@ -625,7 +625,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-21.73870000000001</v>
+        <v>-21.6365</v>
       </c>
       <c r="B14" t="n">
         <v>4.04</v>
@@ -645,7 +645,7 @@
         <v>5.32</v>
       </c>
       <c r="C15" t="n">
-        <v>-13.78079999999999</v>
+        <v>-13.92289999999999</v>
       </c>
       <c r="D15" t="n">
         <v>-10.04</v>
@@ -653,7 +653,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-22.04590000000002</v>
+        <v>-22.15170000000002</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
@@ -690,7 +690,7 @@
         <v>-15.14</v>
       </c>
       <c r="D18" t="n">
-        <v>-8.632200000000001</v>
+        <v>-8.729800000000001</v>
       </c>
     </row>
     <row r="19">
@@ -704,7 +704,7 @@
         <v>-12.15</v>
       </c>
       <c r="D19" t="n">
-        <v>-8.199300000000001</v>
+        <v>-8.390199999999998</v>
       </c>
     </row>
     <row r="20">
@@ -723,13 +723,13 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-20.2277</v>
+        <v>-20.39659999999999</v>
       </c>
       <c r="B21" t="n">
         <v>9.52</v>
       </c>
       <c r="C21" t="n">
-        <v>-12.34770000000001</v>
+        <v>-12.4974</v>
       </c>
       <c r="D21" t="n">
         <v>-6.74</v>
@@ -743,7 +743,7 @@
         <v>8.81</v>
       </c>
       <c r="C22" t="n">
-        <v>-11.75190000000001</v>
+        <v>-11.8222</v>
       </c>
       <c r="D22" t="n">
         <v>-6.8</v>
@@ -751,7 +751,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-20.33329999999999</v>
+        <v>-20.41079999999999</v>
       </c>
       <c r="B23" t="n">
         <v>7.87</v>
@@ -771,7 +771,7 @@
         <v>7.41</v>
       </c>
       <c r="C24" t="n">
-        <v>-12.9457</v>
+        <v>-13.33339999999999</v>
       </c>
       <c r="D24" t="n">
         <v>-7.7</v>
@@ -779,7 +779,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-21.55989999999997</v>
+        <v>-21.61629999999999</v>
       </c>
       <c r="B25" t="n">
         <v>5.23</v>
@@ -793,7 +793,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-21.32139999999997</v>
+        <v>-21.30959999999997</v>
       </c>
       <c r="B26" t="n">
         <v>6.56</v>
@@ -813,7 +813,7 @@
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-12.82189999999999</v>
+        <v>-12.90939999999999</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -827,7 +827,7 @@
         <v>5.47</v>
       </c>
       <c r="C28" t="n">
-        <v>-12.84019999999999</v>
+        <v>-13.10299999999999</v>
       </c>
       <c r="D28" t="n">
         <v>-7.75</v>
@@ -835,7 +835,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-20.74299999999997</v>
+        <v>-20.86519999999997</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -928,7 +928,7 @@
         <v>-13.02</v>
       </c>
       <c r="D35" t="n">
-        <v>-8.639099999999996</v>
+        <v>-8.510899999999994</v>
       </c>
     </row>
     <row r="36">
@@ -939,7 +939,7 @@
         <v>9.84</v>
       </c>
       <c r="C36" t="n">
-        <v>-13.66270000000001</v>
+        <v>-13.23030000000001</v>
       </c>
       <c r="D36" t="n">
         <v>-9.050000000000001</v>
@@ -981,7 +981,7 @@
         <v>9.35</v>
       </c>
       <c r="C39" t="n">
-        <v>-13.63170000000001</v>
+        <v>-13.27670000000001</v>
       </c>
       <c r="D39" t="n">
         <v>-8.93</v>
@@ -989,7 +989,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-20.26049999999999</v>
+        <v>-20.28540000000001</v>
       </c>
       <c r="B40" t="n">
         <v>10.75</v>
@@ -1054,7 +1054,7 @@
         <v>-10.47</v>
       </c>
       <c r="D44" t="n">
-        <v>-7.468099999999996</v>
+        <v>-7.420499999999997</v>
       </c>
     </row>
     <row r="45">
@@ -1065,7 +1065,7 @@
         <v>5.73</v>
       </c>
       <c r="C45" t="n">
-        <v>-13.9058</v>
+        <v>-13.49089999999999</v>
       </c>
       <c r="D45" t="n">
         <v>-7.87</v>
@@ -1096,7 +1096,7 @@
         <v>-11.84</v>
       </c>
       <c r="D47" t="n">
-        <v>-7.169800000000005</v>
+        <v>-7.208800000000008</v>
       </c>
     </row>
     <row r="48">
@@ -1107,7 +1107,7 @@
         <v>5.63</v>
       </c>
       <c r="C48" t="n">
-        <v>-11.6397</v>
+        <v>-11.69789999999999</v>
       </c>
       <c r="D48" t="n">
         <v>-6.88</v>
@@ -1121,7 +1121,7 @@
         <v>4.95</v>
       </c>
       <c r="C49" t="n">
-        <v>-14.09480000000001</v>
+        <v>-13.8508</v>
       </c>
       <c r="D49" t="n">
         <v>-9.210000000000001</v>
@@ -1138,7 +1138,7 @@
         <v>-14.51</v>
       </c>
       <c r="D50" t="n">
-        <v>-8.540900000000004</v>
+        <v>-8.386999999999999</v>
       </c>
     </row>
     <row r="51">
@@ -1152,7 +1152,7 @@
         <v>-13.17</v>
       </c>
       <c r="D51" t="n">
-        <v>-8.305800000000001</v>
+        <v>-8.124799999999997</v>
       </c>
     </row>
     <row r="52">
@@ -1163,21 +1163,21 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-11.14920000000001</v>
+        <v>-11.0043</v>
       </c>
       <c r="D52" t="n">
-        <v>-7.0566</v>
+        <v>-7.088199999999997</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-21.7991</v>
+        <v>-21.77219999999998</v>
       </c>
       <c r="B53" t="n">
         <v>5.82</v>
       </c>
       <c r="C53" t="n">
-        <v>-11.608</v>
+        <v>-11.3361</v>
       </c>
       <c r="D53" t="n">
         <v>-7.23</v>
@@ -1191,7 +1191,7 @@
         <v>6.01</v>
       </c>
       <c r="C54" t="n">
-        <v>-13.30820000000001</v>
+        <v>-13.1581</v>
       </c>
       <c r="D54" t="n">
         <v>-8.01</v>
@@ -1208,7 +1208,7 @@
         <v>-15.79</v>
       </c>
       <c r="D55" t="n">
-        <v>-9.107600000000001</v>
+        <v>-8.822000000000001</v>
       </c>
     </row>
     <row r="56">
@@ -1227,16 +1227,16 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.0735</v>
+        <v>-22.00899999999998</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-13.1186</v>
+        <v>-12.9384</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.661000000000001</v>
+        <v>-8.570199999999994</v>
       </c>
     </row>
     <row r="58">
@@ -1250,12 +1250,12 @@
         <v>-15.6</v>
       </c>
       <c r="D58" t="n">
-        <v>-8.239800000000011</v>
+        <v>-8.189300000000005</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-22.45750000000001</v>
+        <v>-22.54360000000002</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1334,12 +1334,12 @@
         <v>-10.62</v>
       </c>
       <c r="D64" t="n">
-        <v>-7.587299999999994</v>
+        <v>-7.472199999999991</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-21.78509999999998</v>
+        <v>-21.82469999999998</v>
       </c>
       <c r="B65" t="n">
         <v>6.69</v>
@@ -1362,7 +1362,7 @@
         <v>-10.51</v>
       </c>
       <c r="D66" t="n">
-        <v>-7.651099999999991</v>
+        <v>-7.547099999999992</v>
       </c>
     </row>
     <row r="67">
@@ -1395,7 +1395,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.51959999999999</v>
+        <v>-21.60749999999999</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1415,7 +1415,7 @@
         <v>4.05</v>
       </c>
       <c r="C70" t="n">
-        <v>-11.63049999999999</v>
+        <v>-11.4693</v>
       </c>
       <c r="D70" t="n">
         <v>-7.03</v>
@@ -1429,7 +1429,7 @@
         <v>4.58</v>
       </c>
       <c r="C71" t="n">
-        <v>-10.8924</v>
+        <v>-11.3242</v>
       </c>
       <c r="D71" t="n">
         <v>-7.44</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-20.77760000000001</v>
+        <v>-20.654</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1558,7 +1558,7 @@
         <v>-12.35</v>
       </c>
       <c r="D80" t="n">
-        <v>-7.416400000000003</v>
+        <v>-7.685200000000002</v>
       </c>
     </row>
     <row r="81">
@@ -1591,7 +1591,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-22.03890000000001</v>
+        <v>-22.2473</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1600,7 +1600,7 @@
         <v>-13.03</v>
       </c>
       <c r="D83" t="n">
-        <v>-7.963200000000001</v>
+        <v>-8.355499999999999</v>
       </c>
     </row>
     <row r="84">
@@ -1639,7 +1639,7 @@
         <v>4.69</v>
       </c>
       <c r="C86" t="n">
-        <v>-13.9118</v>
+        <v>-14.302</v>
       </c>
       <c r="D86" t="n">
         <v>-8.17</v>
@@ -1653,7 +1653,7 @@
         <v>5.81</v>
       </c>
       <c r="C87" t="n">
-        <v>-13.18990000000001</v>
+        <v>-12.9213</v>
       </c>
       <c r="D87" t="n">
         <v>-8.869999999999999</v>
@@ -1681,7 +1681,7 @@
         <v>5.51</v>
       </c>
       <c r="C89" t="n">
-        <v>-13.3928</v>
+        <v>-14.03989999999999</v>
       </c>
       <c r="D89" t="n">
         <v>-8.140000000000001</v>
@@ -1703,7 +1703,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-20.70759999999999</v>
+        <v>-20.91289999999999</v>
       </c>
       <c r="B91" t="n">
         <v>7.49</v>
@@ -1726,12 +1726,12 @@
         <v>-9.789999999999999</v>
       </c>
       <c r="D92" t="n">
-        <v>-6.564799999999998</v>
+        <v>-6.650899999999996</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.32450000000002</v>
+        <v>-21.36940000000001</v>
       </c>
       <c r="B93" t="n">
         <v>4.28</v>
@@ -1754,7 +1754,7 @@
         <v>-9.49</v>
       </c>
       <c r="D94" t="n">
-        <v>-6.7882</v>
+        <v>-6.856300000000001</v>
       </c>
     </row>
     <row r="95">
@@ -1782,7 +1782,7 @@
         <v>-10.65</v>
       </c>
       <c r="D96" t="n">
-        <v>-8.263300000000005</v>
+        <v>-8.234000000000002</v>
       </c>
     </row>
     <row r="97">
@@ -1796,7 +1796,7 @@
         <v>-10.47</v>
       </c>
       <c r="D97" t="n">
-        <v>-8.657699999999982</v>
+        <v>-8.963399999999982</v>
       </c>
     </row>
     <row r="98">
@@ -1829,7 +1829,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-22.22690000000002</v>
+        <v>-22.25220000000001</v>
       </c>
       <c r="B100" t="n">
         <v>4.73</v>
@@ -1849,10 +1849,10 @@
         <v>8.42</v>
       </c>
       <c r="C101" t="n">
-        <v>-12.3186</v>
+        <v>-12.4343</v>
       </c>
       <c r="D101" t="n">
-        <v>-8.009900000000002</v>
+        <v>-8.517700000000003</v>
       </c>
     </row>
     <row r="102">
@@ -1871,7 +1871,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>-21.7183</v>
+        <v>-21.56839999999999</v>
       </c>
       <c r="B103" t="n">
         <v>5.09</v>
